--- a/Gen/tem.xlsx
+++ b/Gen/tem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i355926\Desktop\foo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3872739E-0E3C-4557-9A5F-8FC934980C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D4D61-00C5-4E04-974A-3CFB8B9A977F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{ECC05E39-E23F-4634-827D-613CA837508A}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
-  <si>
-    <t>No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="21">
   <si>
     <t>Unit</t>
   </si>
@@ -81,6 +78,21 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -164,16 +176,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7857C4-2A3A-4AF0-A614-1CDC8E8AA6F2}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,499 +517,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1007,6 +1147,14 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
